--- a/data/balance_sheet/3digits/total/951_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/951_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>951-Repair of computers and communication equipment</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>951-Repair of computers and communication equipment</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>310678.00756</v>
@@ -1487,75 +937,85 @@
         <v>410437.45361</v>
       </c>
       <c r="F5" s="33" t="n">
-        <v>403337.15426</v>
+        <v>403347.4266599999</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>455430.9439400001</v>
+        <v>455544.54203</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>485873.9960100001</v>
+        <v>486478.7041</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>555627.74172</v>
+        <v>556948.7466699999</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>662915.17631</v>
+        <v>663090.17631</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>584257.0413299999</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>894709.2197600001</v>
+        <v>896786.1641000001</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>726535.09369</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>731295.1224700001</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>964491.55</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>39839.78787</v>
       </c>
       <c r="D6" s="23" t="n">
-        <v>45035.36743999999</v>
+        <v>45035.36744</v>
       </c>
       <c r="E6" s="23" t="n">
         <v>48524.71524</v>
       </c>
       <c r="F6" s="33" t="n">
-        <v>49359.64115</v>
+        <v>49369.91355</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>51744.47125</v>
+        <v>51765.02929000001</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>43948.52194</v>
+        <v>44217.57204</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>73978.48801</v>
+        <v>74250.06994</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>86305.91792000001</v>
+        <v>86480.91792000001</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>107607.43665</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>122191.0444</v>
+        <v>122488.70952</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>138229.1191</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>139874.55789</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>206318.727</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>13063.97093</v>
@@ -1567,35 +1027,40 @@
         <v>16872.18189</v>
       </c>
       <c r="F7" s="21" t="n">
-        <v>18602.81933</v>
+        <v>18613.09173</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>17423.69651</v>
+        <v>17443.07995</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>16759.06524</v>
+        <v>16935.32219</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>17146.5917</v>
+        <v>17367.43216</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>22121.78281</v>
+        <v>22296.78281</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>26699.3808</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>22718.59217</v>
+        <v>22755.33715</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>28334.53443</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>29031.18265999999</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>39937.793</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>4497.19323</v>
@@ -1613,29 +1078,34 @@
         <v>5369.53333</v>
       </c>
       <c r="H8" s="21" t="n">
-        <v>6835.82317</v>
+        <v>6925.921530000001</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>11369.12344</v>
+        <v>11421.12344</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>8637.445519999999</v>
       </c>
       <c r="K8" s="22" t="n">
-        <v>8561.38025</v>
+        <v>8561.380249999998</v>
       </c>
       <c r="L8" s="22" t="n">
-        <v>7423.74624</v>
+        <v>7673.74624</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>8606.39496</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>9194.395960000002</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>6646.827</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>24128.20242</v>
@@ -1650,32 +1120,37 @@
         <v>26706.48073</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>37411.36989</v>
+        <v>37412.54449</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>28619.06017</v>
+        <v>28620.15756</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>50447.58015000001</v>
+        <v>50453.82162</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>65175.85823</v>
+        <v>65175.85823000001</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>79082.09815999999</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>98315.17815999998</v>
+        <v>98325.79829999998</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>110773.77171</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>111127.16625</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>179958.634</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>3079.81915</v>
@@ -1696,7 +1171,7 @@
         <v>10223.36044</v>
       </c>
       <c r="I10" s="22" t="n">
-        <v>6821.840730000001</v>
+        <v>6829.340730000001</v>
       </c>
       <c r="J10" s="21" t="n">
         <v>11878.10991</v>
@@ -1710,18 +1185,23 @@
       <c r="M10" s="22" t="n">
         <v>14271.93114</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>27084.792</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>1230.24044</v>
       </c>
       <c r="D11" s="22" t="n">
-        <v>907.5534</v>
+        <v>907.5533999999999</v>
       </c>
       <c r="E11" s="22" t="n">
         <v>1198.62725</v>
@@ -1733,7 +1213,7 @@
         <v>1487.62084</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>1957.9338</v>
+        <v>1959.5312</v>
       </c>
       <c r="I11" s="22" t="n">
         <v>1837.03345</v>
@@ -1742,20 +1222,25 @@
         <v>2248.94127</v>
       </c>
       <c r="K11" s="22" t="n">
-        <v>3600.602310000001</v>
+        <v>3600.60231</v>
       </c>
       <c r="L11" s="22" t="n">
-        <v>4755.86467</v>
+        <v>4756.16467</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>4786.34914</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>4793.74416</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>6860.265</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>1330.59218</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>6734.149760000001</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>20527.49</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>120</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>760.8453000000001</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>879.236</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>11.97426</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>3396.37382</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>12805.957</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>198.88514</v>
@@ -1910,18 +1410,23 @@
       <c r="M15" s="22" t="n">
         <v>1693.2632</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>2477.129</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>999.73278</v>
       </c>
       <c r="D16" s="22" t="n">
-        <v>925.7941299999999</v>
+        <v>925.79413</v>
       </c>
       <c r="E16" s="22" t="n">
         <v>239.14346</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>883.6674399999999</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>4365.168</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>111422.48522</v>
@@ -2010,13 +1525,13 @@
         <v>139722.22695</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>146986.49569</v>
+        <v>147027.21829</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>175532.30504</v>
+        <v>175589.57877</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>230380.51454</v>
+        <v>230829.32648</v>
       </c>
       <c r="J18" s="33" t="n">
         <v>329683.87757</v>
@@ -2025,17 +1540,22 @@
         <v>211790.09841</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>468665.14342</v>
+        <v>469705.64859</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>247277.73085</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>248299.21474</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>322494.45</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>102815.53621</v>
@@ -2050,13 +1570,13 @@
         <v>125512.91365</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>136029.05838</v>
+        <v>136069.78098</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>164074.17628</v>
+        <v>164131.45001</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>218548.43829</v>
+        <v>218997.25023</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>312920.24036</v>
@@ -2065,17 +1585,22 @@
         <v>198705.63667</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>454191.73297</v>
+        <v>455232.23814</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>225182.83449</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>226437.06138</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>304647.312</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>4874.426560000001</v>
@@ -2084,7 +1609,7 @@
         <v>3800.93628</v>
       </c>
       <c r="E20" s="22" t="n">
-        <v>8371.93938</v>
+        <v>8371.939380000002</v>
       </c>
       <c r="F20" s="21" t="n">
         <v>11420.02805</v>
@@ -2096,7 +1621,7 @@
         <v>7022.55142</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>7736.04073</v>
+        <v>7736.040730000001</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>9753.77507</v>
@@ -2108,14 +1633,19 @@
         <v>11059.20748</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>16139.5953</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>16263.4953</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>11893.863</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>833.7983200000001</v>
@@ -2230,12 +1770,17 @@
       <c r="M23" s="22" t="n">
         <v>1593.94092</v>
       </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+      <c r="N23" s="22" t="n">
+        <v>1788.801</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>316.82345</v>
@@ -2268,14 +1813,19 @@
         <v>1533.44598</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>1876.06965</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>1519.42665</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>1567.992</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>17609.68189</v>
@@ -2296,7 +1846,7 @@
         <v>5395.34163</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>7184.892290000001</v>
+        <v>7184.89229</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>5797.89743</v>
@@ -2305,17 +1855,22 @@
         <v>4354.10625</v>
       </c>
       <c r="L25" s="22" t="n">
-        <v>6036.226860000001</v>
+        <v>6036.22686</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>6844.67497</v>
-      </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+        <v>6844.674970000001</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>7206.603</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>15027.78121</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>4359.384480000001</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>4610.121</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>27088.20156</v>
@@ -2370,13 +1930,13 @@
         <v>23184.79148</v>
       </c>
       <c r="G27" s="23" t="n">
-        <v>34823.82692</v>
+        <v>34823.82691999999</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>29058.33952</v>
+        <v>29114.22165</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>26867.5572</v>
+        <v>26891.53637</v>
       </c>
       <c r="J27" s="33" t="n">
         <v>22448.56463</v>
@@ -2385,17 +1945,22 @@
         <v>40250.48316</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>37535.23916</v>
+        <v>37539.74117</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>46395.77471</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>46752.05390000001</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>67641.283</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>20880.87534</v>
@@ -2413,7 +1978,7 @@
         <v>16612.22244</v>
       </c>
       <c r="H28" s="21" t="n">
-        <v>11467.42042</v>
+        <v>11523.30255</v>
       </c>
       <c r="I28" s="22" t="n">
         <v>12544.92904</v>
@@ -2425,17 +1990,22 @@
         <v>33976.81654000001</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>30016.71928</v>
+        <v>30020.32224</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>35819.18322</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>36007.63914</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>51359.574</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>304.98729</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>16.5</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>16.986</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>1292.93294</v>
@@ -2490,13 +2065,13 @@
         <v>4176.3156</v>
       </c>
       <c r="G30" s="22" t="n">
-        <v>6663.196209999999</v>
+        <v>6663.19621</v>
       </c>
       <c r="H30" s="21" t="n">
         <v>7896.91846</v>
       </c>
       <c r="I30" s="22" t="n">
-        <v>7974.676739999999</v>
+        <v>7974.67674</v>
       </c>
       <c r="J30" s="21" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>213.80913</v>
@@ -2539,7 +2119,7 @@
         <v>551.55794</v>
       </c>
       <c r="J31" s="21" t="n">
-        <v>369.0864300000001</v>
+        <v>369.08643</v>
       </c>
       <c r="K31" s="22" t="n">
         <v>446.15034</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>665.36694</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>583.931</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>4395.596860000001</v>
@@ -2576,26 +2161,31 @@
         <v>8594.24106</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>5037.909920000001</v>
+        <v>5061.88909</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>4868.763599999999</v>
       </c>
       <c r="K32" s="22" t="n">
-        <v>5807.07255</v>
+        <v>5807.072549999999</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>6989.56475</v>
+        <v>6990.463799999999</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>9890.78082</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>10058.60409</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>15676.848</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0.857</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>3.94373</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0.857</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>112012.25507</v>
@@ -2730,13 +2335,13 @@
         <v>128568.20343</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>150305.12039</v>
+        <v>150350.55739</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>160940.87495</v>
+        <v>161153.91813</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>149551.71131</v>
+        <v>150085.42369</v>
       </c>
       <c r="J36" s="33" t="n">
         <v>178483.37739</v>
@@ -2745,23 +2350,28 @@
         <v>165805.40311</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>185908.30449</v>
+        <v>186547.73228</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>210637.61131</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>211867.76696</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>241304.37</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
-        <v>4331.338140000001</v>
+        <v>4331.33814</v>
       </c>
       <c r="D37" s="22" t="n">
-        <v>8843.166130000001</v>
+        <v>8843.16613</v>
       </c>
       <c r="E37" s="22" t="n">
         <v>13852.0752</v>
@@ -2773,10 +2383,10 @@
         <v>20569.36472</v>
       </c>
       <c r="H37" s="21" t="n">
-        <v>23365.95455</v>
+        <v>23402.26455</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>17788.14321</v>
+        <v>17849.36521</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>23482.02286</v>
@@ -2785,17 +2395,22 @@
         <v>25192.25597</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>37086.88183</v>
+        <v>37403.69293</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>43548.30632</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>43548.62553</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>31542.238</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>1971.55506</v>
@@ -2830,18 +2445,23 @@
       <c r="M38" s="22" t="n">
         <v>3833.072</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>4005.882</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>309.99503</v>
       </c>
       <c r="D39" s="22" t="n">
-        <v>323.8359599999999</v>
+        <v>323.83596</v>
       </c>
       <c r="E39" s="22" t="n">
         <v>1174.22203</v>
@@ -2868,14 +2488,19 @@
         <v>6614.694350000001</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>6928.5808</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>6912.46374</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>8465.295</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>76517.93899</v>
@@ -2887,16 +2512,16 @@
         <v>64630.11812000001</v>
       </c>
       <c r="F40" s="21" t="n">
-        <v>70574.41325999999</v>
+        <v>70574.41326</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>77979.85563999999</v>
+        <v>78025.29264</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>82779.65968000001</v>
+        <v>82956.39285999999</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>86444.16144999999</v>
+        <v>86916.65183000002</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>101671.54287</v>
@@ -2905,17 +2530,22 @@
         <v>108317.47115</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>100287.32081</v>
+        <v>100549.1865</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>118925.33301</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>120057.18915</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>138183.651</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>17125.35187</v>
@@ -2948,14 +2578,19 @@
         <v>3106.39948</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>4165.91421</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>4174.85421</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>2853.259</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>11756.07598</v>
@@ -3025,17 +2665,22 @@
         <v>17680.85662</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>33989.39039</v>
+        <v>34050.14139</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>33236.40497</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>33341.56233</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>56254.045</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>33.72354</v>
@@ -3068,14 +2713,19 @@
         <v>198.07525</v>
       </c>
       <c r="M44" s="23" t="n">
-        <v>191.99452</v>
-      </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+        <v>283.5860300000001</v>
+      </c>
+      <c r="N44" s="23" t="n">
+        <v>253.804</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>33.72354</v>
@@ -3108,14 +2758,19 @@
         <v>198.07525</v>
       </c>
       <c r="M45" s="22" t="n">
-        <v>191.99452</v>
-      </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+        <v>283.5860300000001</v>
+      </c>
+      <c r="N45" s="22" t="n">
+        <v>253.804</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>10372.53854</v>
@@ -3210,7 +2875,7 @@
         <v>16486.08243</v>
       </c>
       <c r="G48" s="46" t="n">
-        <v>23999.66952</v>
+        <v>23999.86368</v>
       </c>
       <c r="H48" s="45" t="n">
         <v>26489.94351</v>
@@ -3225,38 +2890,43 @@
         <v>22084.66534</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>26186.91471</v>
+        <v>26186.99758</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>18275.69076</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>18370.43612</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>15866.94</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
-        <v>3777.1461</v>
+        <v>3777.146099999999</v>
       </c>
       <c r="D49" s="22" t="n">
         <v>6718.19446</v>
       </c>
       <c r="E49" s="22" t="n">
-        <v>6002.660360000002</v>
+        <v>6002.660360000001</v>
       </c>
       <c r="F49" s="21" t="n">
         <v>6543.5488</v>
       </c>
       <c r="G49" s="22" t="n">
-        <v>7774.75787</v>
+        <v>7774.952029999999</v>
       </c>
       <c r="H49" s="21" t="n">
         <v>8135.9524</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>7755.413020000001</v>
+        <v>7755.41302</v>
       </c>
       <c r="J49" s="21" t="n">
         <v>7102.73666</v>
@@ -3265,17 +2935,22 @@
         <v>7699.09844</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>7599.4815</v>
+        <v>7599.564369999999</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>8058.64116</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>8153.386519999999</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>6646.499</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>6595.39244</v>
@@ -3284,10 +2959,10 @@
         <v>9262.444710000002</v>
       </c>
       <c r="E50" s="22" t="n">
-        <v>7319.602459999999</v>
+        <v>7319.60246</v>
       </c>
       <c r="F50" s="21" t="n">
-        <v>9942.533629999998</v>
+        <v>9942.533630000002</v>
       </c>
       <c r="G50" s="22" t="n">
         <v>16224.91165</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>10217.0496</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>9220.441000000001</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>8578.423580000001</v>
@@ -3324,19 +3004,19 @@
         <v>14778.96449</v>
       </c>
       <c r="E51" s="46" t="n">
-        <v>41033.39055999999</v>
+        <v>41033.39056</v>
       </c>
       <c r="F51" s="45" t="n">
-        <v>40843.31448</v>
+        <v>40843.31447999999</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>43607.64815</v>
+        <v>43614.33444000001</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>46367.89147000001</v>
+        <v>46377.35042</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>46947.29023</v>
+        <v>46990.20976</v>
       </c>
       <c r="J51" s="45" t="n">
         <v>21430.22418</v>
@@ -3345,17 +3025,22 @@
         <v>27625.15559</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>50422.47983999999</v>
+        <v>50517.24122</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>58793.02268000001</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>59113.35707000001</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>90084.486</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>3784.13271</v>
@@ -3370,13 +3055,13 @@
         <v>9351.05673</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>12182.72544</v>
+        <v>12189.27645</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>12751.62932</v>
+        <v>12761.08827</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>12013.33737</v>
+        <v>12055.3794</v>
       </c>
       <c r="J52" s="21" t="n">
         <v>14005.65309</v>
@@ -3385,17 +3070,22 @@
         <v>14730.28703</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>17190.94935</v>
+        <v>17263.03384</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>22500.43751</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>22584.96126</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>24790.601</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>31.81865</v>
@@ -3425,17 +3115,22 @@
         <v>188.07408</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>22.78290000000001</v>
+        <v>22.91195</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>128.90329</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>147.8953</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>706.822</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>31.51073</v>
@@ -3456,7 +3151,7 @@
         <v>205.5915</v>
       </c>
       <c r="I54" s="22" t="n">
-        <v>93.96811</v>
+        <v>94.84560999999999</v>
       </c>
       <c r="J54" s="21" t="n">
         <v>581.17857</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>73.71548999999999</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>71.636</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>458.5668</v>
@@ -3490,7 +3190,7 @@
         <v>1093.9092</v>
       </c>
       <c r="G55" s="22" t="n">
-        <v>1459.23898</v>
+        <v>1459.37426</v>
       </c>
       <c r="H55" s="21" t="n">
         <v>1231.73339</v>
@@ -3505,17 +3205,22 @@
         <v>1597.16293</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>2300.920770000001</v>
+        <v>2323.46861</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>1738.55372</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>1751.03605</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>3874.355</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>2834.05552</v>
@@ -3533,7 +3238,7 @@
         <v>1962.61145</v>
       </c>
       <c r="H56" s="21" t="n">
-        <v>3510.686380000001</v>
+        <v>3510.68638</v>
       </c>
       <c r="I56" s="22" t="n">
         <v>4028.91024</v>
@@ -3548,14 +3253,19 @@
         <v>6050.2614</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>7910.98658</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>8111.699880000001</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>11065.979</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>1430.80516</v>
@@ -3570,7 +3280,7 @@
         <v>964.1194400000001</v>
       </c>
       <c r="G57" s="22" t="n">
-        <v>880.2783599999999</v>
+        <v>880.2783600000001</v>
       </c>
       <c r="H57" s="21" t="n">
         <v>1056.30054</v>
@@ -3588,14 +3298,19 @@
         <v>1760.35272</v>
       </c>
       <c r="M57" s="22" t="n">
-        <v>1806.34208</v>
-      </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+        <v>1809.96508</v>
+      </c>
+      <c r="N57" s="22" t="n">
+        <v>2216.839</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>7.53401</v>
@@ -3610,7 +3325,7 @@
         <v>0.00039</v>
       </c>
       <c r="G58" s="22" t="n">
-        <v>0.09021000000000001</v>
+        <v>0.09021</v>
       </c>
       <c r="H58" s="21" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0.15703</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>109.504</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>24633.92698</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>47248.75</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,18 +3434,23 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>75160.25646999999</v>
       </c>
       <c r="D61" s="36" t="n">
-        <v>72468.40377999999</v>
+        <v>72468.40378000001</v>
       </c>
       <c r="E61" s="36" t="n">
         <v>92282.17116000001</v>
@@ -3729,32 +3459,37 @@
         <v>101008.13875</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>109596.61218</v>
+        <v>109668.64372</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>118678.6557</v>
+        <v>118937.03775</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>130917.70924</v>
+        <v>131308.41313</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>91282.77102</v>
+        <v>91282.77102000001</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>107392.69439</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>130255.94438</v>
+        <v>130469.60841</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>173138.43205</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>174887.84217</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>181260.518</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>5382.8473</v>
@@ -3763,10 +3498,10 @@
         <v>578.9296899999999</v>
       </c>
       <c r="E62" s="36" t="n">
-        <v>780.93797</v>
+        <v>780.9379700000001</v>
       </c>
       <c r="F62" s="37" t="n">
-        <v>872.11179</v>
+        <v>872.1117899999999</v>
       </c>
       <c r="G62" s="36" t="n">
         <v>1188.00446</v>
@@ -3775,7 +3510,7 @@
         <v>939.0955</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>8000.361889999999</v>
+        <v>8014.915480000001</v>
       </c>
       <c r="J62" s="37" t="n">
         <v>2631.83126</v>
@@ -3787,14 +3522,19 @@
         <v>2380.8285</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>4657.33783</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>4658.83783</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>2389.428</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>139.68667</v>
@@ -3815,7 +3555,7 @@
         <v>92.68300000000001</v>
       </c>
       <c r="I63" s="22" t="n">
-        <v>5006.848</v>
+        <v>5021.401589999999</v>
       </c>
       <c r="J63" s="21" t="n">
         <v>1200</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>4590.05989</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>3619.89416</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>1512.044</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,24 +3704,29 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>653.10074</v>
       </c>
       <c r="D67" s="22" t="n">
-        <v>486.24669</v>
+        <v>486.2466899999999</v>
       </c>
       <c r="E67" s="22" t="n">
         <v>664.33482</v>
       </c>
       <c r="F67" s="21" t="n">
-        <v>774.3185900000001</v>
+        <v>774.31859</v>
       </c>
       <c r="G67" s="22" t="n">
         <v>798.62146</v>
@@ -3981,20 +3741,25 @@
         <v>672.68773</v>
       </c>
       <c r="K67" s="22" t="n">
-        <v>578.2598099999999</v>
+        <v>578.25981</v>
       </c>
       <c r="L67" s="22" t="n">
         <v>936.59801</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>1037.44367</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>1038.94367</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>877.384</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>348.75073</v>
@@ -4067,14 +3837,19 @@
         <v>859.78374</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>938.1416099999999</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>1198.25982</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>5731.069</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>100.68205</v>
@@ -4107,14 +3882,19 @@
         <v>635.87171</v>
       </c>
       <c r="M70" s="22" t="n">
-        <v>462.28527</v>
-      </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+        <v>462.28528</v>
+      </c>
+      <c r="N70" s="22" t="n">
+        <v>2575.44</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>252</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>252</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>248.06868</v>
@@ -4267,14 +4062,19 @@
         <v>223.91203</v>
       </c>
       <c r="M74" s="22" t="n">
-        <v>223.85634</v>
-      </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+        <v>483.97454</v>
+      </c>
+      <c r="N74" s="22" t="n">
+        <v>2903.629</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>27262.119</v>
@@ -4363,7 +4173,7 @@
         <v>31431.19412</v>
       </c>
       <c r="E77" s="23" t="n">
-        <v>43418.89395000001</v>
+        <v>43418.89395</v>
       </c>
       <c r="F77" s="33" t="n">
         <v>44055.9067</v>
@@ -4381,20 +4191,25 @@
         <v>5905.24073</v>
       </c>
       <c r="K77" s="23" t="n">
-        <v>6079.269850000001</v>
+        <v>6079.26985</v>
       </c>
       <c r="L77" s="23" t="n">
         <v>6288.269850000001</v>
       </c>
       <c r="M77" s="23" t="n">
-        <v>6061.26985</v>
-      </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+        <v>6061.269850000001</v>
+      </c>
+      <c r="N77" s="23" t="n">
+        <v>6140.77</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>19.65663</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>535.9759299999999</v>
@@ -4495,7 +4320,7 @@
         <v>1091.64673</v>
       </c>
       <c r="I80" s="22" t="n">
-        <v>985.9149299999999</v>
+        <v>985.91493</v>
       </c>
       <c r="J80" s="21" t="n">
         <v>965.9149299999999</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>812.21493</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>791.715</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>69.1875</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>26775.67394</v>
@@ -4606,7 +4446,7 @@
         <v>43105.94547</v>
       </c>
       <c r="F83" s="21" t="n">
-        <v>43150.94547</v>
+        <v>43150.94547000001</v>
       </c>
       <c r="G83" s="22" t="n">
         <v>47479.99939</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>5639.92892</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>5739.929</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>390.875</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>390.875</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>29122.94841</v>
@@ -4809,32 +4674,37 @@
         <v>41304.76143999999</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>43027.19725</v>
+        <v>43098.27009000001</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>51838.67215999999</v>
+        <v>51946.72111</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>54874.11011</v>
+        <v>55071.58848</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>59916.78623999999</v>
+        <v>59916.78624</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>73704.81050000001</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>89063.49448000001</v>
+        <v>89308.60307000001</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>111953.23305</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>109012.43393</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>119220.273</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>0</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>5385.65772</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>6512.551</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>0.02966</v>
@@ -4909,24 +4784,29 @@
       <c r="M90" s="22" t="n">
         <v>26.10381</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>26.104</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>6237.42449</v>
       </c>
       <c r="D91" s="22" t="n">
-        <v>4708.222380000001</v>
+        <v>4708.22238</v>
       </c>
       <c r="E91" s="22" t="n">
-        <v>5979.373280000001</v>
+        <v>5979.373279999999</v>
       </c>
       <c r="F91" s="21" t="n">
-        <v>7525.673140000001</v>
+        <v>7525.67314</v>
       </c>
       <c r="G91" s="22" t="n">
         <v>7717.74149</v>
@@ -4944,17 +4824,22 @@
         <v>21309.14762</v>
       </c>
       <c r="L91" s="22" t="n">
-        <v>24740.85633999999</v>
+        <v>24820.19914</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>27115.67885</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>27162.90348</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>27561.724</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>30784.37027</v>
@@ -4963,7 +4848,7 @@
         <v>33289.58009</v>
       </c>
       <c r="E92" s="22" t="n">
-        <v>37057.46133999999</v>
+        <v>37057.46134</v>
       </c>
       <c r="F92" s="21" t="n">
         <v>41950.36737000001</v>
@@ -4975,7 +4860,7 @@
         <v>35043.00281000001</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>40116.84817</v>
+        <v>40128.67168</v>
       </c>
       <c r="J92" s="21" t="n">
         <v>37048.09111</v>
@@ -4984,17 +4869,22 @@
         <v>40270.34868</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>46289.77707</v>
+        <v>46295.09063000001</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>41178.73244000001</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>41758.56254</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>46139.905</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>16348.30877</v>
@@ -5009,13 +4899,13 @@
         <v>23422.18777</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>24215.98733</v>
+        <v>24259.4958</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>25865.91625</v>
+        <v>25908.12472</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>28093.61858</v>
+        <v>28185.14288</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>31672.92429</v>
@@ -5024,17 +4914,22 @@
         <v>34331.28376</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>44817.98839</v>
+        <v>45025.59254999999</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>58127.16183</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>58661.13675</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>68328.001</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>23312.20552</v>
@@ -5049,13 +4944,13 @@
         <v>31095.98912</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>31107.30362</v>
+        <v>31177.09479</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>33528.74851</v>
+        <v>33615.92304</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>35373.0654</v>
+        <v>35480.15672</v>
       </c>
       <c r="J94" s="21" t="n">
         <v>35817.73314</v>
@@ -5064,17 +4959,22 @@
         <v>40082.32792</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>41904.41574</v>
+        <v>41975.12371</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>55869.42954999999</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>51952.98421000001</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>58672.448</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>15.62322</v>
@@ -5109,33 +5009,38 @@
       <c r="M95" s="22" t="n">
         <v>23.65618</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>1517.76</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
-        <v>47817.62367</v>
+        <v>47817.62366999999</v>
       </c>
       <c r="D96" s="22" t="n">
-        <v>52408.86319999999</v>
+        <v>52408.8632</v>
       </c>
       <c r="E96" s="22" t="n">
-        <v>57207.45857000001</v>
+        <v>57207.45857</v>
       </c>
       <c r="F96" s="21" t="n">
         <v>63390.24133</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>56451.78141</v>
+        <v>56494.00820999999</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>59474.45692</v>
+        <v>59495.79097</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>65043.27448000001</v>
+        <v>65056.23523999999</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>62527.90381</v>
@@ -5144,17 +5049,22 @@
         <v>68398.61843999999</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>76170.44528</v>
+        <v>76288.30518000001</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>79549.45608000002</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>79734.83951000001</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>90463.087</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>195.37737</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>3514.16107</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>711.2089999999999</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>47.23278</v>
@@ -5229,33 +5144,38 @@
       <c r="M98" s="22" t="n">
         <v>262.10768</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>213.658</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>10972.33998</v>
       </c>
       <c r="D99" s="23" t="n">
-        <v>9190.017380000001</v>
+        <v>9190.017379999999</v>
       </c>
       <c r="E99" s="23" t="n">
-        <v>7626.47469</v>
+        <v>7626.474689999999</v>
       </c>
       <c r="F99" s="33" t="n">
         <v>10752.72245</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>12173.6989</v>
+        <v>12174.6576</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>12463.14235</v>
+        <v>12468.58735</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>11382.93829</v>
+        <v>11393.58354</v>
       </c>
       <c r="J99" s="33" t="n">
         <v>11633.05381</v>
@@ -5264,17 +5184,22 @@
         <v>12139.17784</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>15023.38337</v>
+        <v>15036.15623</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>31758.74613</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>35418.60019</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>30245.24</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>3477.0841</v>
@@ -5289,10 +5214,10 @@
         <v>4282.641509999999</v>
       </c>
       <c r="G100" s="22" t="n">
-        <v>6563.63472</v>
+        <v>6571.83577</v>
       </c>
       <c r="H100" s="21" t="n">
-        <v>6737.184960000001</v>
+        <v>6737.18496</v>
       </c>
       <c r="I100" s="22" t="n">
         <v>7748.62667</v>
@@ -5304,17 +5229,22 @@
         <v>9414.925090000001</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>11117.37263</v>
+        <v>11128.81445</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>15054.13301</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>14477.14189</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>12302.516</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,18 +5279,23 @@
       <c r="M101" s="22" t="n">
         <v>2050</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>2050</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>3046.83509</v>
       </c>
       <c r="D102" s="22" t="n">
-        <v>3065.58434</v>
+        <v>3065.584339999999</v>
       </c>
       <c r="E102" s="22" t="n">
         <v>3071.79247</v>
@@ -5369,13 +5304,13 @@
         <v>1201.73263</v>
       </c>
       <c r="G102" s="22" t="n">
-        <v>1173.80437</v>
+        <v>1174.76307</v>
       </c>
       <c r="H102" s="21" t="n">
         <v>1175.8943</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>1381.34758</v>
+        <v>1383.3128</v>
       </c>
       <c r="J102" s="21" t="n">
         <v>1381.02344</v>
@@ -5384,17 +5319,22 @@
         <v>1210.44822</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>1200.17172</v>
+        <v>1205.34693</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>436.47624</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>443.05056</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>452.203</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>1012.96954</v>
@@ -5427,14 +5367,19 @@
         <v>1266.57839</v>
       </c>
       <c r="M103" s="22" t="n">
-        <v>2424.07578</v>
-      </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+        <v>6649.620390000001</v>
+      </c>
+      <c r="N103" s="22" t="n">
+        <v>6395.802</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>10278.57024</v>
@@ -5449,13 +5394,13 @@
         <v>16241.22862</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>15942.37371</v>
+        <v>15945.84829</v>
       </c>
       <c r="H104" s="21" t="n">
-        <v>15826.88745</v>
+        <v>15832.33245</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>15804.56436</v>
+        <v>15813.24439</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>17056.4789</v>
@@ -5464,17 +5409,22 @@
         <v>19533.84387</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>22898.38174</v>
+        <v>22906.90299</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>29609.05826</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>29613.78451</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>30414.8</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>10397.24326</v>
@@ -5492,7 +5442,7 @@
         <v>10115.37795</v>
       </c>
       <c r="H105" s="21" t="n">
-        <v>9897.559880000001</v>
+        <v>9897.559879999999</v>
       </c>
       <c r="I105" s="22" t="n">
         <v>10101.3325</v>
@@ -5509,12 +5459,17 @@
       <c r="M105" s="22" t="n">
         <v>6122.17553</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>6306.452</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>17295.64525</v>
@@ -5529,7 +5484,7 @@
         <v>25391.00585</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>24726.47322</v>
+        <v>24738.14885</v>
       </c>
       <c r="H106" s="21" t="n">
         <v>24844.93591</v>
@@ -5544,17 +5499,22 @@
         <v>23515.7075</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>30425.62351</v>
+        <v>30437.98893</v>
       </c>
       <c r="M106" s="22" t="n">
         <v>23937.44534</v>
       </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+      <c r="N106" s="22" t="n">
+        <v>27676.806</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>55.283</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>0.27265</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0.38379</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>4.01876</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>2.549</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>2.87485</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0.32645</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0.38379</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>1.47036</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>1965.43927</v>
@@ -5852,10 +5847,10 @@
         <v>4507.64596</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>5084.10683</v>
+        <v>5228.99493</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>5124.95584</v>
+        <v>5292.98252</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>6087.17624</v>
@@ -5864,17 +5859,22 @@
         <v>8095.946650000001</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>11311.83843</v>
+        <v>11314.83043</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>10919.67482</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>11688.41179</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>10338.868</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>1864.15378</v>
@@ -5892,29 +5892,34 @@
         <v>4502.01647</v>
       </c>
       <c r="H115" s="21" t="n">
-        <v>5084.10683</v>
+        <v>5228.99493</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>4986.95584</v>
+        <v>5154.98252</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>6087.17624</v>
       </c>
       <c r="K115" s="22" t="n">
-        <v>8095.946650000001</v>
+        <v>8095.94665</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>11311.83843</v>
+        <v>11314.83043</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>10909.67482</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>11678.41179</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>10281.581</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>101.28549</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>57.287</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>105.42799</v>
@@ -5975,26 +5985,31 @@
         <v>-13.27538</v>
       </c>
       <c r="I117" s="23" t="n">
-        <v>-32.65785999999999</v>
+        <v>-32.65786</v>
       </c>
       <c r="J117" s="33" t="n">
         <v>3559.76187</v>
       </c>
       <c r="K117" s="23" t="n">
-        <v>4505.335359999999</v>
+        <v>4505.33536</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>5324.327250000001</v>
+        <v>5277.11783</v>
       </c>
       <c r="M117" s="23" t="n">
         <v>6846.01</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>7192.321</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0.3795</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0.02235</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>776.7619999999999</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>0.01478</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>105.02614</v>
@@ -6224,17 +6264,22 @@
         <v>246.99146</v>
       </c>
       <c r="L123" s="22" t="n">
-        <v>274.08492</v>
+        <v>226.8755</v>
       </c>
       <c r="M123" s="22" t="n">
         <v>502.75954</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>499.471</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6341,7 +6396,7 @@
         <v>3291.74157</v>
       </c>
       <c r="K126" s="22" t="n">
-        <v>4257.911899999999</v>
+        <v>4257.9119</v>
       </c>
       <c r="L126" s="22" t="n">
         <v>5049.79556</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>6343.23568</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>5916.073</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>385838.26403</v>
@@ -6366,32 +6426,35 @@
         <v>502719.62477</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>504345.29301</v>
+        <v>504355.56541</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>565027.55612</v>
+        <v>565213.1857499999</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>604552.65171</v>
+        <v>605415.7418499999</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>686545.45096</v>
+        <v>688257.1598</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>754197.9473299999</v>
+        <v>754372.9473299999</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>691649.73572</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>1024965.16414</v>
+        <v>1027255.77251</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>899673.52574</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>906182.96464</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>1145752.068</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>951-Repair of computers and communication equipment</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>263996.38524</v>
@@ -6501,13 +6578,13 @@
         <v>407206.9232</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>474956.88106</v>
+        <v>475067.24292</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>502533.31406</v>
+        <v>503249.2152</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>566304.15506</v>
+        <v>567674.61625</v>
       </c>
       <c r="J132" s="33" t="n">
         <v>530102.33274</v>
@@ -6516,38 +6593,43 @@
         <v>427553.54629</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>686881.24157</v>
+        <v>689162.27501</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>524312.2254799999</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>528418.599</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>653724.008</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
-        <v>51798.45804999999</v>
+        <v>51798.45805</v>
       </c>
       <c r="D133" s="23" t="n">
         <v>43224.75693</v>
       </c>
       <c r="E133" s="23" t="n">
-        <v>79667.82833000002</v>
+        <v>79667.82833</v>
       </c>
       <c r="F133" s="33" t="n">
         <v>64484.69477</v>
       </c>
       <c r="G133" s="23" t="n">
-        <v>79059.66281000001</v>
+        <v>79077.09892</v>
       </c>
       <c r="H133" s="33" t="n">
-        <v>68917.39124000001</v>
+        <v>68947.20542</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>74688.27634</v>
+        <v>74831.60134000001</v>
       </c>
       <c r="J133" s="33" t="n">
         <v>36538.30143</v>
@@ -6556,17 +6638,22 @@
         <v>43382.00816</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>35388.85197</v>
+        <v>35388.85297</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>41892.74047</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>42162.31006999999</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>50089.578</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>50874.08016</v>
@@ -6578,35 +6665,40 @@
         <v>77990.50960999999</v>
       </c>
       <c r="F134" s="21" t="n">
-        <v>63018.36470999999</v>
+        <v>63018.36471</v>
       </c>
       <c r="G134" s="22" t="n">
-        <v>77894.77608</v>
+        <v>77912.21218999999</v>
       </c>
       <c r="H134" s="21" t="n">
-        <v>67867.19434999999</v>
+        <v>67897.00853000001</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>73579.64159999999</v>
+        <v>73722.9666</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>34751.39288</v>
+        <v>34751.39287999999</v>
       </c>
       <c r="K134" s="22" t="n">
-        <v>40516.66465</v>
+        <v>40516.66465000001</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>32584.85728</v>
+        <v>32584.85828</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>36574.59464</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>36844.16424000001</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>40880.943</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>0.6230800000000001</v>
@@ -6618,7 +6710,7 @@
         <v>116.04461</v>
       </c>
       <c r="F135" s="21" t="n">
-        <v>574.6901899999999</v>
+        <v>574.69019</v>
       </c>
       <c r="G135" s="22" t="n">
         <v>203.88316</v>
@@ -6627,7 +6719,7 @@
         <v>27.60091</v>
       </c>
       <c r="I135" s="22" t="n">
-        <v>414.0147</v>
+        <v>414.0146999999999</v>
       </c>
       <c r="J135" s="21" t="n">
         <v>774.85536</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>299.22375</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>47.282</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>0.2846</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>40.66782</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>533.76775</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>1684.16496</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>950.2619999999999</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>390.27166</v>
@@ -6904,7 +7031,7 @@
         <v>566.61887</v>
       </c>
       <c r="H142" s="21" t="n">
-        <v>586.51006</v>
+        <v>586.5100600000001</v>
       </c>
       <c r="I142" s="22" t="n">
         <v>521.57838</v>
@@ -6921,12 +7048,17 @@
       <c r="M142" s="22" t="n">
         <v>3375.42494</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>8213.366</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>136583.87586</v>
@@ -6941,13 +7073,13 @@
         <v>232367.91968</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>261738.36413</v>
+        <v>261786.11563</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>286645.64432</v>
+        <v>286880.17139</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>321093.20972</v>
+        <v>321492.75665</v>
       </c>
       <c r="J143" s="45" t="n">
         <v>343483.5928</v>
@@ -6956,17 +7088,22 @@
         <v>204420.20394</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>415572.97475</v>
+        <v>417027.03603</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>243767.52388</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>242860.09225</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>327533.891</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>119681.51086</v>
@@ -6981,13 +7118,13 @@
         <v>159627.51099</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>193837.78795</v>
+        <v>193884.98795</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>210901.42693</v>
+        <v>211135.6891</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>249865.00706</v>
+        <v>250264.55399</v>
       </c>
       <c r="J144" s="24" t="n">
         <v>329954.27914</v>
@@ -6996,17 +7133,22 @@
         <v>188783.62539</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>399111.86293</v>
+        <v>400473.3573</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>220723.46108</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>219839.84061</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>294682.872</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>12907.14688</v>
@@ -7024,7 +7166,7 @@
         <v>61072.95344</v>
       </c>
       <c r="H145" s="24" t="n">
-        <v>68359.22998</v>
+        <v>68359.22997999999</v>
       </c>
       <c r="I145" s="25" t="n">
         <v>63980.68911</v>
@@ -7036,17 +7178,22 @@
         <v>12966.88463</v>
       </c>
       <c r="L145" s="25" t="n">
-        <v>13890.51662</v>
+        <v>13980.87973</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>19685.32753</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>19611.32753</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>28415.554</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>17.14</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>42.30155999999999</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>75.227</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>3978.07812</v>
@@ -7141,13 +7298,13 @@
         <v>10173.73803</v>
       </c>
       <c r="G148" s="25" t="n">
-        <v>6746.55254</v>
+        <v>6747.104039999999</v>
       </c>
       <c r="H148" s="24" t="n">
-        <v>7227.178370000001</v>
+        <v>7227.443270000001</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>6428.94437</v>
+        <v>6428.944369999999</v>
       </c>
       <c r="J148" s="24" t="n">
         <v>2471.38457</v>
@@ -7156,17 +7313,22 @@
         <v>2628.80177</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>2512.69444</v>
+        <v>2514.89824</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>3316.43371</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>3366.62255</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>4360.238</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>44670.86714</v>
@@ -7181,32 +7343,37 @@
         <v>60760.75672</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>77470.20095</v>
+        <v>77501.61512</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>76283.72729</v>
+        <v>76637.61278</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>76640.33022</v>
+        <v>77370.81808999999</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>80503.9713</v>
+        <v>80503.97129999999</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>94254.99672</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>131275.65686</v>
+        <v>131657.18857</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>141738.24965</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>144812.28851</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>139259.776</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>25369.62806</v>
@@ -7221,13 +7388,13 @@
         <v>34027.74383</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>48581.45533</v>
+        <v>48612.8695</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>47772.69007</v>
+        <v>47942.29384000001</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>48995.46746</v>
+        <v>49552.61447000001</v>
       </c>
       <c r="J150" s="21" t="n">
         <v>60710.14586</v>
@@ -7236,17 +7403,22 @@
         <v>74704.47885</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>111187.08038</v>
+        <v>111556.11086</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>116696.54843</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>119854.76864</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>115317.57</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>53.36553</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>6148.95999</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>5.49868</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>1356.89244</v>
@@ -7350,23 +7532,28 @@
         <v>14492.71503</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>6594.58422</v>
+        <v>6594.584220000001</v>
       </c>
       <c r="K153" s="22" t="n">
         <v>6062.27274</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>9316.92835</v>
+        <v>9329.42958</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>11109.82194</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>11022.47487</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>12271.601</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>11742.02112</v>
@@ -7384,10 +7571,10 @@
         <v>13956.73223</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>13818.5567</v>
+        <v>14002.83842</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>11273.37416</v>
+        <v>11446.71502</v>
       </c>
       <c r="J154" s="21" t="n">
         <v>13121.40889</v>
@@ -7399,14 +7586,19 @@
         <v>10771.64813</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>13926.3806</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>13929.54632</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>11670.605</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>7229.21241</v>
@@ -7464,7 +7661,7 @@
         <v>10438.46383</v>
       </c>
       <c r="H156" s="33" t="n">
-        <v>12826.96103</v>
+        <v>12827.84465</v>
       </c>
       <c r="I156" s="23" t="n">
         <v>23760.66314</v>
@@ -7476,20 +7673,25 @@
         <v>19665.58549</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>30758.10833</v>
+        <v>31020.43933</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>24829.91051</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>25475.55398</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>36993.008</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
-        <v>7091.08213</v>
+        <v>7091.082130000001</v>
       </c>
       <c r="D157" s="22" t="n">
         <v>8910.938460000001</v>
@@ -7501,10 +7703,10 @@
         <v>12170.80963</v>
       </c>
       <c r="G157" s="22" t="n">
-        <v>9789.309870000001</v>
+        <v>9789.309869999999</v>
       </c>
       <c r="H157" s="21" t="n">
-        <v>12803.56437</v>
+        <v>12804.44799</v>
       </c>
       <c r="I157" s="22" t="n">
         <v>23314.66011</v>
@@ -7516,17 +7718,22 @@
         <v>19110.03163</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>29975.60971</v>
+        <v>30233.94071</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>24061.04991</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>24706.69338</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>36363.131</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>138.13028</v>
@@ -7556,17 +7763,22 @@
         <v>555.55386</v>
       </c>
       <c r="L158" s="22" t="n">
-        <v>782.49862</v>
+        <v>786.49862</v>
       </c>
       <c r="M158" s="22" t="n">
-        <v>768.8606</v>
-      </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+        <v>768.8605999999999</v>
+      </c>
+      <c r="N158" s="22" t="n">
+        <v>629.877</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0.2066</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0.2066</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>419.277</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>419.07</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0.2066</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0.2066</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>13308.15051</v>
@@ -7701,13 +7928,13 @@
         <v>32720.46399</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>39527.55731</v>
+        <v>39540.96777</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>52110.18061</v>
+        <v>52206.34091</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>53253.43840000001</v>
+        <v>53348.75502</v>
       </c>
       <c r="J162" s="33" t="n">
         <v>32717.24082</v>
@@ -7716,20 +7943,25 @@
         <v>41745.20948999999</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>50987.09697</v>
+        <v>51157.73852</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>45359.00833</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>46392.36867</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>58611.567</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
-        <v>6028.143359999999</v>
+        <v>6028.14336</v>
       </c>
       <c r="D163" s="22" t="n">
         <v>8596.21823</v>
@@ -7741,13 +7973,13 @@
         <v>16072.22861</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>17871.58414</v>
+        <v>17877.82467</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>25119.52247</v>
+        <v>25122.37417</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>27793.29238</v>
+        <v>27803.9176</v>
       </c>
       <c r="J163" s="21" t="n">
         <v>13551.59056</v>
@@ -7756,17 +7988,22 @@
         <v>20652.12007</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>30449.46361</v>
+        <v>30515.79163</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>23736.4154</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>24072.66852</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>33537.809</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>3486.72596</v>
@@ -7781,13 +8018,13 @@
         <v>11169.76972</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>14416.82068</v>
+        <v>14423.99061</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>17957.14789</v>
+        <v>17960.85067</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>17157.9108</v>
+        <v>17183.69714</v>
       </c>
       <c r="J164" s="21" t="n">
         <v>9223.056210000001</v>
@@ -7796,57 +8033,67 @@
         <v>11506.50172</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>10210.0994</v>
+        <v>10226.36113</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>11186.93763</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>11574.82447</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>11401.376</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>3749.22261</v>
       </c>
       <c r="D165" s="22" t="n">
-        <v>5111.50951</v>
+        <v>5111.509510000001</v>
       </c>
       <c r="E165" s="22" t="n">
-        <v>6318.73669</v>
+        <v>6318.736690000001</v>
       </c>
       <c r="F165" s="21" t="n">
-        <v>4840.83841</v>
+        <v>4840.838410000001</v>
       </c>
       <c r="G165" s="22" t="n">
         <v>6584.30559</v>
       </c>
       <c r="H165" s="21" t="n">
-        <v>8261.233689999999</v>
+        <v>8350.83951</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>7461.214370000001</v>
+        <v>7520.11943</v>
       </c>
       <c r="J165" s="21" t="n">
-        <v>9894.654570000001</v>
+        <v>9894.654569999999</v>
       </c>
       <c r="K165" s="22" t="n">
         <v>9405.422839999999</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>10185.06042</v>
+        <v>10273.11222</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>10301.48004</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>10610.70042</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>13480.977</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>44.05858</v>
@@ -7867,7 +8114,7 @@
         <v>772.27656</v>
       </c>
       <c r="I166" s="22" t="n">
-        <v>841.0208499999999</v>
+        <v>841.02085</v>
       </c>
       <c r="J166" s="21" t="n">
         <v>47.93948</v>
@@ -7881,12 +8128,17 @@
       <c r="M166" s="22" t="n">
         <v>134.17526</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>191.405</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>1093.9155</v>
@@ -7901,72 +8153,82 @@
         <v>2044.01323</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>2646.20768</v>
+        <v>2646.5573</v>
       </c>
       <c r="H167" s="33" t="n">
-        <v>2051.02773</v>
+        <v>2051.65821</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>2333.38349</v>
+        <v>2335.16826</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>3336.96181</v>
+        <v>3336.961810000001</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>3972.26685</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>3216.14219</v>
+        <v>3221.71193</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>4151.50877</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>4185.63077</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>9129.135</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
-        <v>2902.90883</v>
+        <v>2902.908830000001</v>
       </c>
       <c r="D168" s="22" t="n">
         <v>3432.15429</v>
       </c>
       <c r="E168" s="22" t="n">
-        <v>7092.677959999999</v>
+        <v>7092.67796</v>
       </c>
       <c r="F168" s="21" t="n">
         <v>5289.05035</v>
       </c>
       <c r="G168" s="22" t="n">
-        <v>5888.19593</v>
+        <v>5888.545549999999</v>
       </c>
       <c r="H168" s="21" t="n">
-        <v>7097.53488</v>
+        <v>7097.81574</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>9214.80386</v>
+        <v>9215.95815</v>
       </c>
       <c r="J168" s="21" t="n">
-        <v>9963.458600000002</v>
+        <v>9963.4586</v>
       </c>
       <c r="K168" s="22" t="n">
         <v>14683.60738</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>21331.93038</v>
+        <v>21349.12454</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>14076.25616</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>14146.52247</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>29592.741</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>1998.69876</v>
@@ -7984,10 +8246,10 @@
         <v>3656.05097</v>
       </c>
       <c r="H169" s="21" t="n">
-        <v>5698.48942</v>
+        <v>5698.1398</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>7385.33201</v>
+        <v>7384.70153</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>6897.807589999999</v>
@@ -7996,17 +8258,22 @@
         <v>10762.14731</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>18279.94906</v>
+        <v>18291.57348</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>10154.0815</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>10190.22581</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>23782.912</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>164.29252</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>24.79723</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>0.42318</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>3255.999</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0.61568</v>
@@ -8121,15 +8398,20 @@
       <c r="M172" s="22" t="n">
         <v>228.91093</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>63.307</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
-        <v>9208.925499999999</v>
+        <v>9208.925499999998</v>
       </c>
       <c r="D173" s="23" t="n">
         <v>8166.814969999999</v>
@@ -8144,7 +8426,7 @@
         <v>2956.7586</v>
       </c>
       <c r="H173" s="33" t="n">
-        <v>3189.52037</v>
+        <v>3189.520370000001</v>
       </c>
       <c r="I173" s="23" t="n">
         <v>12983.73476</v>
@@ -8156,17 +8438,22 @@
         <v>8381.90712</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>9498.972559999998</v>
+        <v>9500.322560000001</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>10097.65937</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>10001.25627</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>11674.814</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>3991.92479</v>
@@ -8181,10 +8468,10 @@
         <v>390.12036</v>
       </c>
       <c r="G174" s="22" t="n">
-        <v>668.7909400000001</v>
+        <v>668.79094</v>
       </c>
       <c r="H174" s="21" t="n">
-        <v>723.52594</v>
+        <v>723.5259400000001</v>
       </c>
       <c r="I174" s="22" t="n">
         <v>3886.77409</v>
@@ -8193,7 +8480,7 @@
         <v>2967.80039</v>
       </c>
       <c r="K174" s="22" t="n">
-        <v>6845.685109999999</v>
+        <v>6845.68511</v>
       </c>
       <c r="L174" s="22" t="n">
         <v>6422.61495</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>5778.335389999999</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>10061.678</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>5217.00071</v>
@@ -8236,17 +8528,22 @@
         <v>1536.22201</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>3076.35761</v>
+        <v>3077.70761</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>4319.32398</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>4222.92088</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>1613.136</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>102.77367</v>
@@ -8276,17 +8573,22 @@
         <v>5030.50026</v>
       </c>
       <c r="L176" s="23" t="n">
-        <v>10183.23134</v>
+        <v>10188.7785</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>12475.4179</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>12528.89188</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>20012.962</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>94.38851999999999</v>
@@ -8319,14 +8621,19 @@
         <v>35.14319</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>182.91311</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>187.62911</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>429.8</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>8.38411</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>7.49911</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>2.575</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>12276.73339</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>19486.54</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0.00104</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0.06285</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>94.047</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8476,17 +8798,22 @@
         <v>0</v>
       </c>
       <c r="L181" s="35" t="n">
-        <v>622.68538</v>
+        <v>628.2325400000001</v>
       </c>
       <c r="M181" s="35" t="n">
-        <v>8.209440000000001</v>
-      </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+        <v>56.96742</v>
+      </c>
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>14750.77206</v>
@@ -8516,17 +8843,22 @@
         <v>45143.2087</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>42412.47374</v>
+        <v>42534.9551</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>52804.75351</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>52700.42767</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>65912.685</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>5876.45931</v>
@@ -8556,17 +8888,22 @@
         <v>25271.70776</v>
       </c>
       <c r="L183" s="23" t="n">
-        <v>21881.93733</v>
+        <v>21956.06869</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>29537.89471</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>29292.45802</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>36212.543</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>4837.86935</v>
@@ -8575,10 +8912,10 @@
         <v>12209.88027</v>
       </c>
       <c r="E184" s="22" t="n">
-        <v>8129.83071</v>
+        <v>8129.830710000001</v>
       </c>
       <c r="F184" s="21" t="n">
-        <v>9607.56367</v>
+        <v>9607.563670000001</v>
       </c>
       <c r="G184" s="22" t="n">
         <v>14661.15241</v>
@@ -8596,17 +8933,22 @@
         <v>25078.7206</v>
       </c>
       <c r="L184" s="22" t="n">
-        <v>21388.07029</v>
+        <v>21462.20165</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>29233.01281</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>28987.57612</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>35853.426</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>767.10462</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>309.59612</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>366.522</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>51.92368</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>34.71422</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>37.405</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>323.40902</v>
@@ -8841,15 +9208,20 @@
       <c r="M190" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
-        <v>4332.62739</v>
+        <v>4332.627390000001</v>
       </c>
       <c r="D191" s="23" t="n">
         <v>4614.86628</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>1592.74902</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>798.581</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>53.74923</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>923.4071</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>604.239</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>625</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>150</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>4243.822700000001</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>44.34192</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>44.342</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>35.05546</v>
@@ -9081,18 +9478,23 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>1613.22542</v>
       </c>
       <c r="D197" s="23" t="n">
-        <v>3462.419190000001</v>
+        <v>3462.41919</v>
       </c>
       <c r="E197" s="23" t="n">
         <v>3280.17366</v>
@@ -9110,23 +9512,28 @@
         <v>10480.06067</v>
       </c>
       <c r="J197" s="33" t="n">
-        <v>7973.63531</v>
+        <v>7973.635310000001</v>
       </c>
       <c r="K197" s="23" t="n">
         <v>7697.88624</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>7394.49624</v>
+        <v>7442.84624</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>9195.848420000002</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>9336.959269999999</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>11569.867</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>1427.72619</v>
@@ -9144,7 +9551,7 @@
         <v>1856.00157</v>
       </c>
       <c r="H198" s="21" t="n">
-        <v>8425.922379999998</v>
+        <v>8425.92238</v>
       </c>
       <c r="I198" s="22" t="n">
         <v>9612.473019999999</v>
@@ -9156,17 +9563,22 @@
         <v>6485.48816</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>6464.14053</v>
+        <v>6512.490529999999</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>8746.048150000001</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>8887.159</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>11224.483</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>1.95688</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>1.957</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>130.35702</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>0.28802</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>55.14221000000001</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>447.55537</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>343.139</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>3666.63593</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>4504.701</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>3517.73557</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>4297.203</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>148.90036</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>207.498</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>2864.11195</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>6108.89641</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>7089.296</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>2864.11195</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>6108.89641</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>7089.296</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>64.34799000000001</v>
@@ -9633,7 +10100,7 @@
         <v>2457.38069</v>
       </c>
       <c r="K210" s="23" t="n">
-        <v>4433.580779999999</v>
+        <v>4433.58078</v>
       </c>
       <c r="L210" s="23" t="n">
         <v>3463.36831</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>2702.72902</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>5737.458</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>42.63125</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>2166.23099</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>4312.494</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>21.71674</v>
@@ -9707,7 +10184,7 @@
         <v>421.96746</v>
       </c>
       <c r="I212" s="22" t="n">
-        <v>545.24668</v>
+        <v>545.2466800000001</v>
       </c>
       <c r="J212" s="21" t="n">
         <v>771.93223</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>536.49803</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>1424.964</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>107091.10673</v>
@@ -9898,75 +10400,85 @@
         <v>64447.26386</v>
       </c>
       <c r="F217" s="33" t="n">
-        <v>68673.94812</v>
+        <v>68684.22052000002</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>66995.95457</v>
+        <v>67071.22234000001</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>73144.17307</v>
+        <v>73291.36206999999</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>89483.58321000001</v>
+        <v>89824.83086000002</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>194291.30945</v>
+        <v>194466.30945</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>218952.98073</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>295671.44883</v>
+        <v>295558.5424</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>322556.54675</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>325063.93797</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>426115.375</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>87624.72197999999</v>
       </c>
       <c r="D218" s="23" t="n">
-        <v>93250.54506999999</v>
+        <v>93250.54507000001</v>
       </c>
       <c r="E218" s="23" t="n">
         <v>107303.96279</v>
       </c>
       <c r="F218" s="33" t="n">
-        <v>110382.90148</v>
+        <v>110405.40148</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>119802.22024</v>
+        <v>119932.71858</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>136784.20622</v>
+        <v>137247.20786</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>138821.76051</v>
+        <v>139431.76381</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>99047.21685999999</v>
+        <v>99222.21686</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>112111.26628</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>167759.59103</v>
+        <v>167934.59103</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>176570.53934</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>176740.53934</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>143383.48</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>94788.98512</v>
@@ -9978,35 +10490,40 @@
         <v>117321.23612</v>
       </c>
       <c r="F219" s="21" t="n">
-        <v>118381.48058</v>
+        <v>118471.48058</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>130110.58339</v>
+        <v>130310.58339</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>142594.11623</v>
+        <v>143094.11623</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>141304.13174</v>
+        <v>141914.13174</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>102136.7566</v>
+        <v>102311.7566</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>115911.0693</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>172277.05057</v>
+        <v>173222.05057</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>185188.97411</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>187198.97411</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>153519.163</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>16815.52634</v>
@@ -10018,13 +10535,13 @@
         <v>14584.4948</v>
       </c>
       <c r="F220" s="21" t="n">
-        <v>11739.53282</v>
+        <v>11807.03282</v>
       </c>
       <c r="G220" s="22" t="n">
-        <v>14173.64126</v>
+        <v>14243.64126</v>
       </c>
       <c r="H220" s="21" t="n">
-        <v>9571.88494</v>
+        <v>9609.384940000002</v>
       </c>
       <c r="I220" s="22" t="n">
         <v>5793.79114</v>
@@ -10036,38 +10553,43 @@
         <v>6684.56607</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>6712.31284</v>
+        <v>7482.31284</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>10616.50752</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>12456.50752</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>11927.044</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
-        <v>9777.937800000002</v>
+        <v>9777.9378</v>
       </c>
       <c r="D221" s="22" t="n">
         <v>4150.43777</v>
       </c>
       <c r="E221" s="22" t="n">
-        <v>4693.89607</v>
+        <v>4693.896070000001</v>
       </c>
       <c r="F221" s="21" t="n">
         <v>3867.62832</v>
       </c>
       <c r="G221" s="22" t="n">
-        <v>3991.95271</v>
+        <v>3992.45105</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>3888.64953</v>
+        <v>3889.15117</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>3438.09451</v>
+        <v>3438.09781</v>
       </c>
       <c r="J221" s="21" t="n">
         <v>3019.55939</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>2124.74735</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>1918.036</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>126.6746</v>
@@ -10121,15 +10648,20 @@
       <c r="M222" s="22" t="n">
         <v>126.6746</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>126.675</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
-        <v>4852.35876</v>
+        <v>4852.358759999999</v>
       </c>
       <c r="D223" s="23" t="n">
         <v>3153.78009</v>
@@ -10150,7 +10682,7 @@
         <v>5066.08183</v>
       </c>
       <c r="J223" s="33" t="n">
-        <v>6989.4878</v>
+        <v>6989.487799999999</v>
       </c>
       <c r="K223" s="23" t="n">
         <v>6186.718</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>17542.31232</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>15302.533</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>665</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>665</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>82.98089</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>35.86841</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>35.626</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>4225.0172</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>4830.474</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>4769.37787</v>
@@ -10415,7 +10982,7 @@
         <v>3109.09327</v>
       </c>
       <c r="E230" s="22" t="n">
-        <v>5260.101570000001</v>
+        <v>5260.10157</v>
       </c>
       <c r="F230" s="21" t="n">
         <v>6313.83178</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>12616.42671</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>9771.433000000001</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>36355.77114</v>
@@ -10464,10 +11036,10 @@
         <v>36706.59255</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>37095.93394</v>
+        <v>37101.43371</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>34993.34478</v>
+        <v>34998.84454999999</v>
       </c>
       <c r="J231" s="33" t="n">
         <v>19927.35755</v>
@@ -10479,14 +11051,19 @@
         <v>23224.98389</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>25650.11875</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>25650.56552</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>33764.072</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>2840.146</v>
@@ -10501,32 +11078,37 @@
         <v>4253.15597</v>
       </c>
       <c r="G232" s="22" t="n">
-        <v>4288.515179999999</v>
+        <v>4288.51518</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>6197.781849999999</v>
+        <v>6203.281619999999</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>6300.95483</v>
+        <v>6306.4546</v>
       </c>
       <c r="J232" s="21" t="n">
         <v>5218.272640000001</v>
       </c>
       <c r="K232" s="22" t="n">
-        <v>8717.18138</v>
+        <v>8717.181379999998</v>
       </c>
       <c r="L232" s="22" t="n">
         <v>9937.96767</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>10958.66965</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>10959.11642</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>11699.195</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>51.65102</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>364.9233400000001</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>308.117</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>17475.2602</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>11110.50562</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>17726.342</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>152.82637</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>155.46759</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>167.133</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>15835.88755</v>
@@ -10670,7 +11267,7 @@
         <v>13140.87322</v>
       </c>
       <c r="J236" s="21" t="n">
-        <v>2972.634309999999</v>
+        <v>2972.63431</v>
       </c>
       <c r="K236" s="22" t="n">
         <v>2582.73475</v>
@@ -10681,15 +11278,20 @@
       <c r="M236" s="22" t="n">
         <v>3060.55255</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>3863.285</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
-        <v>28659.50916000001</v>
+        <v>28659.50916</v>
       </c>
       <c r="D237" s="23" t="n">
         <v>34531.8294</v>
@@ -10698,16 +11300,16 @@
         <v>45616.59028</v>
       </c>
       <c r="F237" s="33" t="n">
-        <v>61516.75803</v>
+        <v>61517.89438</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>75408.87318000001</v>
+        <v>75426.9442</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>71561.54871999999</v>
+        <v>72538.29509</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>93969.26196999999</v>
+        <v>95037.37867000001</v>
       </c>
       <c r="J237" s="33" t="n">
         <v>130636.47174</v>
@@ -10716,38 +11318,43 @@
         <v>124625.35131</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>164875.77212</v>
+        <v>164996.64054</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>216166.51079</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>216962.99628</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>254097.07</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
-        <v>-49081.85765000001</v>
+        <v>-49081.85765</v>
       </c>
       <c r="D238" s="23" t="n">
-        <v>-40390.83054</v>
+        <v>-40390.83054000001</v>
       </c>
       <c r="E238" s="23" t="n">
         <v>-50723.02279</v>
       </c>
       <c r="F238" s="33" t="n">
-        <v>-140453.68238</v>
+        <v>-140459.96524</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-165914.81031</v>
+        <v>-165960.27035</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-189620.63779</v>
+        <v>-190859.56114</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-200362.37405</v>
+        <v>-201614.35437</v>
       </c>
       <c r="J238" s="33" t="n">
         <v>-87165.7248</v>
@@ -10756,38 +11363,43 @@
         <v>-92261.40654</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-102920.59794</v>
+        <v>-103141.01405</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-150751.22664</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-151650.45135</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-121183.943</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>-1319.39666</v>
       </c>
       <c r="D239" s="23" t="n">
-        <v>7736.851670000001</v>
+        <v>7736.85167</v>
       </c>
       <c r="E239" s="23" t="n">
         <v>-72376.97005</v>
       </c>
       <c r="F239" s="33" t="n">
-        <v>-1980.060910000001</v>
+        <v>-1987.142000000001</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>-11813.50934</v>
+        <v>-11841.35089</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>10886.56488</v>
+        <v>10827.42945</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>16995.50817</v>
+        <v>16905.11637</v>
       </c>
       <c r="J239" s="33" t="n">
         <v>24856.5003</v>
@@ -10796,17 +11408,22 @@
         <v>47476.05611</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>27278.26484</v>
+        <v>27089.9061</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>37378.29219</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>39817.97586</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>100752.163</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>16230.30507</v>
@@ -10821,13 +11438,13 @@
         <v>24322.62687</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>27963.60078</v>
+        <v>27964.99924</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>34404.90519999999</v>
+        <v>34406.02862999999</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>51491.48010000001</v>
+        <v>51506.39875</v>
       </c>
       <c r="J240" s="21" t="n">
         <v>48115.36294</v>
@@ -10836,17 +11453,22 @@
         <v>63696.75829999999</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>76587.70164999999</v>
+        <v>76681.16537</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>56264.18607</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>59165.24305</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>116092.603</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>17549.70173</v>
@@ -10858,16 +11480,16 @@
         <v>98276.79274</v>
       </c>
       <c r="F241" s="21" t="n">
-        <v>26302.68778</v>
+        <v>26309.76887</v>
       </c>
       <c r="G241" s="22" t="n">
-        <v>39777.11012</v>
+        <v>39806.35012999999</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>23518.34032</v>
+        <v>23578.59918</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>34495.97193</v>
+        <v>34601.28238</v>
       </c>
       <c r="J241" s="21" t="n">
         <v>23258.86264</v>
@@ -10876,17 +11498,22 @@
         <v>16220.70219</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>49309.43681</v>
+        <v>49591.25927</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>18885.89388</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>19347.26719</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>15340.44</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>385838.26403</v>
@@ -10895,35 +11522,38 @@
         <v>450697.66234</v>
       </c>
       <c r="E242" s="47" t="n">
-        <v>502719.6247699999</v>
+        <v>502719.62477</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>504345.29301</v>
+        <v>504355.56541</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>565027.55612</v>
+        <v>565213.1857499999</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>604552.65171</v>
+        <v>605415.7418499999</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>686545.45096</v>
+        <v>688257.1598</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>754197.94733</v>
+        <v>754372.9473299999</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>691649.73572</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>1024965.16414</v>
+        <v>1027255.77251</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>899673.52574</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>906182.96464</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>1145752.068</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>523</v>
@@ -10954,32 +11587,35 @@
         <v>570</v>
       </c>
       <c r="F244" s="53" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>582</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>566</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>592</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>602</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>